--- a/medicine/Mort/Crématorium_de_Lyon/Crématorium_de_Lyon.xlsx
+++ b/medicine/Mort/Crématorium_de_Lyon/Crématorium_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_de_Lyon</t>
+          <t>Crématorium_de_Lyon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crématorium de Lyon ou four crématoire du nouveau cimetière de la Guillotière, est un crématorium situé dans le cimetière nouveau de la Guillotière à Lyon en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_de_Lyon</t>
+          <t>Crématorium_de_Lyon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le maire de Lyon, Édouard Herriot, sympathisant du mouvement crématoriste en France, demande une étude à Etienne Curny dès 1907[1]. L'architecte conçoit alors le crématorium qui est construit puis utilisé à partir de 1911[2] dans le cimetière nouveau de la Guillotière.
-Jean-Louis Chorel se charge de certains éléments de sculpture[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le maire de Lyon, Édouard Herriot, sympathisant du mouvement crématoriste en France, demande une étude à Etienne Curny dès 1907. L'architecte conçoit alors le crématorium qui est construit puis utilisé à partir de 1911 dans le cimetière nouveau de la Guillotière.
+Jean-Louis Chorel se charge de certains éléments de sculpture.
 </t>
         </is>
       </c>
